--- a/Statistics/Plants.xlsx
+++ b/Statistics/Plants.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -27,28 +27,151 @@
     <t>Picture</t>
   </si>
   <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
     <t>Green Pixels</t>
   </si>
   <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>1232.12349.8123</t>
-  </si>
-  <si>
-    <t>jshfad</t>
-  </si>
-  <si>
-    <t>Pictures\lol.png</t>
-  </si>
-  <si>
-    <t>sadhfo</t>
-  </si>
-  <si>
-    <t>Pictures\p1</t>
-  </si>
-  <si>
-    <t>uahdshf</t>
+    <t>Percantage</t>
+  </si>
+  <si>
+    <t>30.12.21 21:39:59</t>
+  </si>
+  <si>
+    <t>30.12.21 21:40:06</t>
+  </si>
+  <si>
+    <t>30.12.21 21:40:13</t>
+  </si>
+  <si>
+    <t>30.12.21 21:40:19</t>
+  </si>
+  <si>
+    <t>30.12.21 21:40:26</t>
+  </si>
+  <si>
+    <t>30.12.21 21:40:33</t>
+  </si>
+  <si>
+    <t>30.12.21 21:40:39</t>
+  </si>
+  <si>
+    <t>30.12.21 21:40:46</t>
+  </si>
+  <si>
+    <t>30.12.21 21:40:53</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant0.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant1.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant2.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant3.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant4.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant5.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant6.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant7.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/Total/plant8.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p0.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p1.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p2.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p3.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p4.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p5.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p6.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p7.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p8.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p9.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p10.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p11.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p12.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p13.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p14.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p15.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p16.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p17.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p18.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p19.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p20.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p21.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p22.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p23.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p1/p24.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p2/p25.png</t>
+  </si>
+  <si>
+    <t>/home/pi/Desktop/Hydro/Pictures/p3/p26.png</t>
   </si>
 </sst>
 </file>
@@ -406,13 +529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,39 +551,551 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>27019</v>
+      </c>
+      <c r="G2">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>27019</v>
+      </c>
+      <c r="G3">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>27019</v>
+      </c>
+      <c r="G4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>23226</v>
+      </c>
+      <c r="G5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>23226</v>
+      </c>
+      <c r="G6">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>23226</v>
+      </c>
+      <c r="G7">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1354234</v>
-      </c>
-      <c r="E2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>9257</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9257</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9257</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7398</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7398</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>7398</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>7561</v>
+      </c>
+      <c r="G14">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>7561</v>
+      </c>
+      <c r="G15">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7561</v>
+      </c>
+      <c r="G16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>72817</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>8668</v>
+      </c>
+      <c r="G17">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>8668</v>
+      </c>
+      <c r="G18">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8668</v>
+      </c>
+      <c r="G19">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>7969</v>
+      </c>
+      <c r="G20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>7969</v>
+      </c>
+      <c r="G21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>7969</v>
+      </c>
+      <c r="G22">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5931</v>
+      </c>
+      <c r="G23">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>5931</v>
+      </c>
+      <c r="G24">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5931</v>
+      </c>
+      <c r="G25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7155</v>
+      </c>
+      <c r="G26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>7155</v>
+      </c>
+      <c r="G27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>7155</v>
+      </c>
+      <c r="G28">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -470,13 +1105,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,39 +1127,551 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>27019</v>
+      </c>
+      <c r="G2">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>27019</v>
+      </c>
+      <c r="G3">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>27019</v>
+      </c>
+      <c r="G4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>23226</v>
+      </c>
+      <c r="G5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>23226</v>
+      </c>
+      <c r="G6">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>23226</v>
+      </c>
+      <c r="G7">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1354234</v>
-      </c>
-      <c r="E2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>9257</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9257</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9257</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7398</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7398</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>7398</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>7561</v>
+      </c>
+      <c r="G14">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>7561</v>
+      </c>
+      <c r="G15">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7561</v>
+      </c>
+      <c r="G16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>72817</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>8668</v>
+      </c>
+      <c r="G17">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>8668</v>
+      </c>
+      <c r="G18">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8668</v>
+      </c>
+      <c r="G19">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>7969</v>
+      </c>
+      <c r="G20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>7969</v>
+      </c>
+      <c r="G21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>7969</v>
+      </c>
+      <c r="G22">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5931</v>
+      </c>
+      <c r="G23">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>5931</v>
+      </c>
+      <c r="G24">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5931</v>
+      </c>
+      <c r="G25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7155</v>
+      </c>
+      <c r="G26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>7155</v>
+      </c>
+      <c r="G27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>7155</v>
+      </c>
+      <c r="G28">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -534,13 +1681,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,39 +1703,551 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>27019</v>
+      </c>
+      <c r="G2">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>27019</v>
+      </c>
+      <c r="G3">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>27019</v>
+      </c>
+      <c r="G4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>23226</v>
+      </c>
+      <c r="G5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>23226</v>
+      </c>
+      <c r="G6">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>23226</v>
+      </c>
+      <c r="G7">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1354234</v>
-      </c>
-      <c r="E2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>9257</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>9257</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9257</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>7398</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7398</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>7398</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>7561</v>
+      </c>
+      <c r="G14">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>7561</v>
+      </c>
+      <c r="G15">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7561</v>
+      </c>
+      <c r="G16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>72817</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>8668</v>
+      </c>
+      <c r="G17">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>8668</v>
+      </c>
+      <c r="G18">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8668</v>
+      </c>
+      <c r="G19">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>7969</v>
+      </c>
+      <c r="G20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>7969</v>
+      </c>
+      <c r="G21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>7969</v>
+      </c>
+      <c r="G22">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5931</v>
+      </c>
+      <c r="G23">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>5931</v>
+      </c>
+      <c r="G24">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5931</v>
+      </c>
+      <c r="G25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7155</v>
+      </c>
+      <c r="G26">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>7155</v>
+      </c>
+      <c r="G27">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>7155</v>
+      </c>
+      <c r="G28">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
